--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H2">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N2">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O2">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P2">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q2">
-        <v>109.6231506714327</v>
+        <v>87.42383312725534</v>
       </c>
       <c r="R2">
-        <v>986.6083560428939</v>
+        <v>786.814498145298</v>
       </c>
       <c r="S2">
-        <v>0.005562768907656116</v>
+        <v>0.003433048429305734</v>
       </c>
       <c r="T2">
-        <v>0.005562768907656114</v>
+        <v>0.003433048429305734</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H3">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
         <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q3">
-        <v>2158.991284119102</v>
+        <v>2119.82856655322</v>
       </c>
       <c r="R3">
-        <v>19430.92155707192</v>
+        <v>19078.45709897898</v>
       </c>
       <c r="S3">
-        <v>0.1095568729199829</v>
+        <v>0.08324359468670023</v>
       </c>
       <c r="T3">
-        <v>0.1095568729199829</v>
+        <v>0.08324359468670021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H4">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N4">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q4">
-        <v>784.7049855488696</v>
+        <v>914.5963539493565</v>
       </c>
       <c r="R4">
-        <v>7062.344869939826</v>
+        <v>8231.367185544208</v>
       </c>
       <c r="S4">
-        <v>0.0398194402236929</v>
+        <v>0.03591530437477131</v>
       </c>
       <c r="T4">
-        <v>0.0398194402236929</v>
+        <v>0.0359153043747713</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.65566266666667</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H5">
-        <v>55.966988</v>
+        <v>143.587201</v>
       </c>
       <c r="I5">
-        <v>0.05929622356958762</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J5">
-        <v>0.05929622356958761</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.248835333333334</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N5">
-        <v>6.746506</v>
+        <v>0.350957</v>
       </c>
       <c r="O5">
-        <v>0.03590294220158829</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P5">
-        <v>0.03590294220158827</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q5">
-        <v>41.95351337154757</v>
+        <v>5.599214811261889</v>
       </c>
       <c r="R5">
-        <v>377.581620343928</v>
+        <v>50.39293330135699</v>
       </c>
       <c r="S5">
-        <v>0.002128908887591361</v>
+        <v>0.0002198756897923667</v>
       </c>
       <c r="T5">
-        <v>0.00212890888759136</v>
+        <v>0.0002198756897923667</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>55.966988</v>
       </c>
       <c r="I6">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J6">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.29005966666666</v>
+        <v>1.826566</v>
       </c>
       <c r="N6">
-        <v>132.870179</v>
+        <v>5.479698</v>
       </c>
       <c r="O6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q6">
-        <v>826.2604126278724</v>
+        <v>34.07579913440266</v>
       </c>
       <c r="R6">
-        <v>7436.343713650851</v>
+        <v>306.682192209624</v>
       </c>
       <c r="S6">
-        <v>0.0419281484325301</v>
+        <v>0.001338123307009605</v>
       </c>
       <c r="T6">
-        <v>0.0419281484325301</v>
+        <v>0.001338123307009605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J7">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.09762433333333</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N7">
-        <v>48.292873</v>
+        <v>132.870179</v>
       </c>
       <c r="O7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q7">
-        <v>300.3118492973916</v>
+        <v>826.2604126278726</v>
       </c>
       <c r="R7">
-        <v>2702.806643676524</v>
+        <v>7436.343713650853</v>
       </c>
       <c r="S7">
-        <v>0.01523916624946615</v>
+        <v>0.0324464383486897</v>
       </c>
       <c r="T7">
-        <v>0.01523916624946615</v>
+        <v>0.0324464383486897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>97.66137466666667</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H8">
-        <v>292.984124</v>
+        <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.310412490288807</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J8">
-        <v>0.310412490288807</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.248835333333334</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N8">
-        <v>6.746506</v>
+        <v>57.326608</v>
       </c>
       <c r="O8">
-        <v>0.03590294220158829</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P8">
-        <v>0.03590294220158827</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q8">
-        <v>219.6243500523049</v>
+        <v>356.4886202240783</v>
       </c>
       <c r="R8">
-        <v>1976.619150470744</v>
+        <v>3208.397582016704</v>
       </c>
       <c r="S8">
-        <v>0.01114472169749012</v>
+        <v>0.01399895948218374</v>
       </c>
       <c r="T8">
-        <v>0.01114472169749012</v>
+        <v>0.01399895948218374</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>97.66137466666667</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H9">
-        <v>292.984124</v>
+        <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.310412490288807</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J9">
-        <v>0.310412490288807</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>44.29005966666666</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N9">
-        <v>132.870179</v>
+        <v>0.350957</v>
       </c>
       <c r="O9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q9">
-        <v>4325.428111115354</v>
+        <v>2.182445134168444</v>
       </c>
       <c r="R9">
-        <v>38928.85300003819</v>
+        <v>19.642006207516</v>
       </c>
       <c r="S9">
-        <v>0.2194915659825539</v>
+        <v>8.570248606002921E-05</v>
       </c>
       <c r="T9">
-        <v>0.2194915659825539</v>
+        <v>8.570248606002922E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H10">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I10">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J10">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.09762433333333</v>
+        <v>1.826566</v>
       </c>
       <c r="N10">
-        <v>48.292873</v>
+        <v>5.479698</v>
       </c>
       <c r="O10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q10">
-        <v>1572.116121260917</v>
+        <v>312.4521619897907</v>
       </c>
       <c r="R10">
-        <v>14149.04509134825</v>
+        <v>2812.069457908116</v>
       </c>
       <c r="S10">
-        <v>0.07977620260876295</v>
+        <v>0.01226969083351502</v>
       </c>
       <c r="T10">
-        <v>0.07977620260876295</v>
+        <v>0.01226969083351502</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.83447233333333</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H11">
-        <v>32.503417</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I11">
-        <v>0.03443690557740099</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J11">
-        <v>0.03443690557740099</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,43 +1116,43 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.248835333333334</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N11">
-        <v>6.746506</v>
+        <v>132.870179</v>
       </c>
       <c r="O11">
-        <v>0.03590294220158829</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P11">
-        <v>0.03590294220158827</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q11">
-        <v>24.36494420122244</v>
+        <v>7576.252321299548</v>
       </c>
       <c r="R11">
-        <v>219.284497811002</v>
+        <v>68186.27089169592</v>
       </c>
       <c r="S11">
-        <v>0.001236386230546981</v>
+        <v>0.2975120193346057</v>
       </c>
       <c r="T11">
-        <v>0.001236386230546981</v>
+        <v>0.2975120193346057</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.83447233333333</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H12">
-        <v>32.503417</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I12">
-        <v>0.03443690557740099</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J12">
-        <v>0.03443690557740099</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.29005966666666</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N12">
-        <v>132.870179</v>
+        <v>57.326608</v>
       </c>
       <c r="O12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q12">
-        <v>479.8594261001824</v>
+        <v>3268.760907834927</v>
       </c>
       <c r="R12">
-        <v>4318.734834901642</v>
+        <v>29418.84817051434</v>
       </c>
       <c r="S12">
-        <v>0.02435021324607324</v>
+        <v>0.12836104411121</v>
       </c>
       <c r="T12">
-        <v>0.02435021324607324</v>
+        <v>0.12836104411121</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.83447233333333</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H13">
-        <v>32.503417</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I13">
-        <v>0.03443690557740099</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J13">
-        <v>0.03443690557740099</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>16.09762433333333</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N13">
-        <v>48.292873</v>
+        <v>0.350957</v>
       </c>
       <c r="O13">
-        <v>0.2570006204793479</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P13">
-        <v>0.2570006204793479</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q13">
-        <v>174.4092654718934</v>
+        <v>20.01155417971044</v>
       </c>
       <c r="R13">
-        <v>1569.683389247041</v>
+        <v>180.103987617394</v>
       </c>
       <c r="S13">
-        <v>0.00885030610078077</v>
+        <v>0.000785834162002711</v>
       </c>
       <c r="T13">
-        <v>0.00885030610078077</v>
+        <v>0.0007858341620027111</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>138.7199146666667</v>
+        <v>12.628047</v>
       </c>
       <c r="H14">
-        <v>416.159744</v>
+        <v>37.884141</v>
       </c>
       <c r="I14">
-        <v>0.4409152985128724</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J14">
-        <v>0.4409152985128724</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N14">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O14">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P14">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q14">
-        <v>311.958245539385</v>
+        <v>23.065961296602</v>
       </c>
       <c r="R14">
-        <v>2807.624209854464</v>
+        <v>207.593651669418</v>
       </c>
       <c r="S14">
-        <v>0.0158301564783037</v>
+        <v>0.0009057777423744542</v>
       </c>
       <c r="T14">
-        <v>0.0158301564783037</v>
+        <v>0.0009057777423744543</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>138.7199146666667</v>
+        <v>12.628047</v>
       </c>
       <c r="H15">
-        <v>416.159744</v>
+        <v>37.884141</v>
       </c>
       <c r="I15">
-        <v>0.4409152985128724</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J15">
-        <v>0.4409152985128724</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N15">
         <v>132.870179</v>
       </c>
       <c r="O15">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P15">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q15">
-        <v>6143.913297541574</v>
+        <v>559.2969551034711</v>
       </c>
       <c r="R15">
-        <v>55295.21967787417</v>
+        <v>5033.672595931239</v>
       </c>
       <c r="S15">
-        <v>0.3117696367379236</v>
+        <v>0.02196304445309023</v>
       </c>
       <c r="T15">
-        <v>0.3117696367379236</v>
+        <v>0.02196304445309023</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>138.7199146666667</v>
+        <v>12.628047</v>
       </c>
       <c r="H16">
-        <v>416.159744</v>
+        <v>37.884141</v>
       </c>
       <c r="I16">
-        <v>0.4409152985128724</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J16">
-        <v>0.4409152985128724</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N16">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O16">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P16">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q16">
-        <v>2233.061073856057</v>
+        <v>241.307700058192</v>
       </c>
       <c r="R16">
-        <v>20097.54966470451</v>
+        <v>2171.769300523728</v>
       </c>
       <c r="S16">
-        <v>0.1133155052966451</v>
+        <v>0.009475917390379056</v>
       </c>
       <c r="T16">
-        <v>0.1133155052966451</v>
+        <v>0.009475917390379056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>12.628047</v>
+      </c>
+      <c r="H17">
+        <v>37.884141</v>
+      </c>
+      <c r="I17">
+        <v>0.0324027517316099</v>
+      </c>
+      <c r="J17">
+        <v>0.0324027517316099</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.350957</v>
+      </c>
+      <c r="O17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q17">
+        <v>1.477300496993</v>
+      </c>
+      <c r="R17">
+        <v>13.295704472937</v>
+      </c>
+      <c r="S17">
+        <v>5.80121457661556E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.801214576615561E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>139.5154473333333</v>
+      </c>
+      <c r="H18">
+        <v>418.546342</v>
+      </c>
+      <c r="I18">
+        <v>0.3579876130225438</v>
+      </c>
+      <c r="J18">
+        <v>0.3579876130225438</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.826566</v>
+      </c>
+      <c r="N18">
+        <v>5.479698</v>
+      </c>
+      <c r="O18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="P18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="Q18">
+        <v>254.8341725738573</v>
+      </c>
+      <c r="R18">
+        <v>2293.507553164716</v>
+      </c>
+      <c r="S18">
+        <v>0.01000708873762892</v>
+      </c>
+      <c r="T18">
+        <v>0.01000708873762892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>139.5154473333333</v>
+      </c>
+      <c r="H19">
+        <v>418.546342</v>
+      </c>
+      <c r="I19">
+        <v>0.3579876130225438</v>
+      </c>
+      <c r="J19">
+        <v>0.3579876130225438</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>44.29005966666667</v>
+      </c>
+      <c r="N19">
+        <v>132.870179</v>
+      </c>
+      <c r="O19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="P19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="Q19">
+        <v>6179.147486815024</v>
+      </c>
+      <c r="R19">
+        <v>55612.32738133522</v>
+      </c>
+      <c r="S19">
+        <v>0.242649078806467</v>
+      </c>
+      <c r="T19">
+        <v>0.242649078806467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>139.5154473333333</v>
+      </c>
+      <c r="H20">
+        <v>418.546342</v>
+      </c>
+      <c r="I20">
+        <v>0.3579876130225438</v>
+      </c>
+      <c r="J20">
+        <v>0.3579876130225438</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.10886933333333</v>
+      </c>
+      <c r="N20">
+        <v>57.326608</v>
+      </c>
+      <c r="O20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="P20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="Q20">
+        <v>2665.982453074215</v>
+      </c>
+      <c r="R20">
+        <v>23993.84207766793</v>
+      </c>
+      <c r="S20">
+        <v>0.1046905236900406</v>
+      </c>
+      <c r="T20">
+        <v>0.1046905236900406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>139.5154473333333</v>
+      </c>
+      <c r="H21">
+        <v>418.546342</v>
+      </c>
+      <c r="I21">
+        <v>0.3579876130225438</v>
+      </c>
+      <c r="J21">
+        <v>0.3579876130225438</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.350957</v>
+      </c>
+      <c r="O21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q21">
+        <v>16.32130761658822</v>
+      </c>
+      <c r="R21">
+        <v>146.891768549294</v>
+      </c>
+      <c r="S21">
+        <v>0.0006409217884073235</v>
+      </c>
+      <c r="T21">
+        <v>0.0006409217884073236</v>
       </c>
     </row>
   </sheetData>
